--- a/to270522/18.xlsx
+++ b/to270522/18.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472AB4D-2729-304C-BD9A-A80B732E6F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,11 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -232,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -475,368 +521,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
         <v>42</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="4">
         <v>69</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>13</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>73</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>95</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>34</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>66</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>100</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>80</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
         <v>26</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="4">
         <v>88</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="4">
         <v>58</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="4">
         <v>17</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>91</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="4">
         <v>60</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="R1">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>92</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>72</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>85</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>52</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>35</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>36</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>89</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>85</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>74</v>
       </c>
       <c r="J2" s="1">
         <v>30</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>23</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>53</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>96</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>43</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>70</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="R2">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>89</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>23</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>13</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>15</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>91</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>56</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>55</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>86</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>73</v>
       </c>
       <c r="J3" s="1">
         <v>17</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>98</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>55</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>31</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>50</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>14</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>38</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>63</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>88</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>18</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>90</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>95</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>22</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>68</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>43</v>
       </c>
       <c r="J4" s="1">
         <v>40</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>10</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>19</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>74</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>70</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>79</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>46</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>66</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>18</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>85</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>76</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>68</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>33</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>95</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>48</v>
       </c>
       <c r="J5" s="1">
         <v>43</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>65</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>51</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>49</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>89</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>77</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>55</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>71</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>87</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>58</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>75</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>13</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>48</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>22</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>91</v>
       </c>
       <c r="J6" s="1">
         <v>15</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>16</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>33</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>27</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>69</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>56</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>77</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>17</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>100</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>77</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>81</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>64</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>50</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>49</v>
       </c>
       <c r="J7" s="1">
         <v>68</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>96</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>100</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>50</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>31</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>87</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>75</v>
       </c>
       <c r="B8" s="2">
@@ -860,533 +914,1486 @@
       <c r="H8" s="2">
         <v>71</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>75</v>
       </c>
       <c r="J8" s="1">
         <v>64</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>10</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>56</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>57</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>18</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>64</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>60</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>96</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>77</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>42</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>41</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>98</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>66</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>82</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>53</v>
       </c>
       <c r="J9" s="1">
         <v>40</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>77</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>25</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>64</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>75</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>97</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>41</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>50</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>63</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>25</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>19</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>97</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>96</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>75</v>
       </c>
       <c r="J10" s="1">
         <v>59</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>16</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>28</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>67</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>54</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>12</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>92</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>33</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>80</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>62</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>30</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>68</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>45</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>28</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>63</v>
       </c>
       <c r="J11" s="1">
         <v>33</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>73</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>98</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>66</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>89</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>93</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>52</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>23</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>24</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>26</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>91</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>91</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>50</v>
       </c>
       <c r="J12" s="1">
         <v>84</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>91</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>82</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>12</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>85</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>66</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>44</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>22</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>51</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>34</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>52</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>39</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>56</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>53</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>72</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>57</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>89</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>52</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>89</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>32</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>51</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>24</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>94</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>39</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>58</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>52</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>23</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>45</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>65</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>36</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>13</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>52</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>27</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>55</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>32</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>80</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>64</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>64</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>79</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>21</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>54</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>86</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>50</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>40</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>80</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>51</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>45</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>14</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>24</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>99</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>25</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>93</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>69</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>22</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>62</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>31</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>15</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>100</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>36</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>15</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>19</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>36</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>30</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>84</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>60</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <v>13</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="13">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+    <row r="18" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4">
+        <f>A19+B1</f>
+        <v>111</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:P19" si="0">B19+C1</f>
+        <v>124</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>292</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>572</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>598</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>744</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>761</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>852</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>912</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="0"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <f>A19+A2</f>
+        <v>134</v>
+      </c>
+      <c r="B20" s="7">
+        <f>B2+MIN(A20,B19)</f>
+        <v>183</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" ref="C20:P20" si="1">C2+MIN(B20,C19)</f>
+        <v>209</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>598</v>
+      </c>
+      <c r="K20" s="8">
+        <f>K19+K2</f>
+        <v>709</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="1"/>
+        <v>857</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="1"/>
+        <v>895</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="1"/>
+        <v>965</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <f t="shared" ref="A21:A34" si="2">A20+A3</f>
+        <v>223</v>
+      </c>
+      <c r="B21" s="7">
+        <f t="shared" ref="B21:B34" si="3">B3+MIN(A21,B20)</f>
+        <v>206</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" ref="C21:C34" si="4">C3+MIN(B21,C20)</f>
+        <v>219</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" ref="D21:D34" si="5">D3+MIN(C21,D20)</f>
+        <v>234</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21:E34" si="6">E3+MIN(D21,E20)</f>
+        <v>325</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21:F34" si="7">F3+MIN(E21,F20)</f>
+        <v>376</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21:G34" si="8">G3+MIN(F21,G20)</f>
+        <v>431</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:H34" si="9">H3+MIN(G21,H20)</f>
+        <v>517</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" ref="I21:I34" si="10">I3+MIN(H21,I20)</f>
+        <v>590</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J21:J34" si="11">J3+MIN(I21,J20)</f>
+        <v>607</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21:K30" si="12">K20+K3</f>
+        <v>807</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" ref="L21:L34" si="13">L3+MIN(K21,L20)</f>
+        <v>817</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" ref="M21:M34" si="14">M3+MIN(L21,M20)</f>
+        <v>848</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:N34" si="15">N3+MIN(M21,N20)</f>
+        <v>898</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" ref="O21:O34" si="16">O3+MIN(N21,O20)</f>
+        <v>912</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" ref="P21:P34" si="17">P3+MIN(O21,P20)</f>
+        <v>939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="B22" s="7">
+        <f t="shared" si="3"/>
+        <v>269</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="6"/>
+        <v>342</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>437</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="8"/>
+        <v>453</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="9"/>
+        <v>521</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="10"/>
+        <v>564</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="11"/>
+        <v>604</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="12"/>
+        <v>817</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="13"/>
+        <v>836</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="14"/>
+        <v>910</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="15"/>
+        <v>968</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="16"/>
+        <v>991</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="17"/>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="B23" s="7">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="6"/>
+        <v>413</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>481</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="8"/>
+        <v>486</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="9"/>
+        <v>581</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="10"/>
+        <v>612</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="11"/>
+        <v>647</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="12"/>
+        <v>882</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="13"/>
+        <v>887</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="14"/>
+        <v>936</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="15"/>
+        <v>1025</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="16"/>
+        <v>1068</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="17"/>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <f t="shared" si="2"/>
+        <v>362</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="4"/>
+        <v>412</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="5"/>
+        <v>395</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>483</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="9"/>
+        <v>553</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="10"/>
+        <v>644</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="11"/>
+        <v>659</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="12"/>
+        <v>898</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="13"/>
+        <v>920</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="14"/>
+        <v>947</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="15"/>
+        <v>1016</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="16"/>
+        <v>1072</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="17"/>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="5"/>
+        <v>472</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>564</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="8"/>
+        <v>595</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="9"/>
+        <v>603</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="10"/>
+        <v>652</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="12"/>
+        <v>994</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="13"/>
+        <v>1020</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="14"/>
+        <v>997</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="15"/>
+        <v>1028</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="16"/>
+        <v>1115</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="17"/>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="4"/>
+        <v>527</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="5"/>
+        <v>529</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="6"/>
+        <v>551</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="7"/>
+        <v>620</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="8"/>
+        <v>637</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="9"/>
+        <v>674</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="10"/>
+        <v>727</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="11"/>
+        <v>784</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="12"/>
+        <v>1004</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="13"/>
+        <v>1060</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="14"/>
+        <v>1054</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="15"/>
+        <v>1046</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="16"/>
+        <v>1110</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="17"/>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <f t="shared" si="2"/>
+        <v>574</v>
+      </c>
+      <c r="B27" s="8">
+        <f>A27+B9</f>
+        <v>670</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" ref="C27:H27" si="18">B27+C9</f>
+        <v>747</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="18"/>
+        <v>789</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="18"/>
+        <v>830</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="18"/>
+        <v>928</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="18"/>
+        <v>994</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="18"/>
+        <v>1076</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="10"/>
+        <v>780</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="11"/>
+        <v>820</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="12"/>
+        <v>1081</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="13"/>
+        <v>1085</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="14"/>
+        <v>1118</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="15"/>
+        <v>1121</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="16"/>
+        <v>1207</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="17"/>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="B28" s="7">
+        <f t="shared" si="3"/>
+        <v>635</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="4"/>
+        <v>685</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="5"/>
+        <v>748</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="6"/>
+        <v>773</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>792</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="8"/>
+        <v>889</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="9"/>
+        <v>985</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="10"/>
+        <v>855</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="11"/>
+        <v>879</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="12"/>
+        <v>1097</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="13"/>
+        <v>1113</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="14"/>
+        <v>1180</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="15"/>
+        <v>1175</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="16"/>
+        <v>1187</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="17"/>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <f t="shared" si="2"/>
+        <v>686</v>
+      </c>
+      <c r="B29" s="7">
+        <f t="shared" si="3"/>
+        <v>668</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="4"/>
+        <v>748</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="5"/>
+        <v>810</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="6"/>
+        <v>803</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>860</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="8"/>
+        <v>905</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="9"/>
+        <v>933</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="10"/>
+        <v>918</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="11"/>
+        <v>912</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="12"/>
+        <v>1170</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="13"/>
+        <v>1211</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="14"/>
+        <v>1246</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="15"/>
+        <v>1264</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="16"/>
+        <v>1280</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="17"/>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <f t="shared" si="2"/>
+        <v>738</v>
+      </c>
+      <c r="B30" s="7">
+        <f t="shared" si="3"/>
+        <v>691</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="4"/>
+        <v>737</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="5"/>
+        <v>761</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="6"/>
+        <v>787</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>819</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="8"/>
+        <v>910</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="9"/>
+        <v>1001</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="10"/>
+        <v>968</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="11"/>
+        <v>996</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="12"/>
+        <v>1261</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="13"/>
+        <v>1293</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="14"/>
+        <v>1258</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="15"/>
+        <v>1343</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="16"/>
+        <v>1346</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="17"/>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <f t="shared" si="2"/>
+        <v>782</v>
+      </c>
+      <c r="B31" s="7">
+        <f t="shared" si="3"/>
+        <v>713</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="4"/>
+        <v>764</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="5"/>
+        <v>795</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="6"/>
+        <v>839</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>858</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="8"/>
+        <v>914</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="9"/>
+        <v>967</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="10"/>
+        <v>1039</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="11"/>
+        <v>1053</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" ref="K21:K34" si="19">K13+MIN(J31,K30)</f>
+        <v>1142</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="13"/>
+        <v>1194</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="14"/>
+        <v>1283</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="15"/>
+        <v>1315</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="16"/>
+        <v>1366</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="17"/>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <f t="shared" si="2"/>
+        <v>806</v>
+      </c>
+      <c r="B32" s="7">
+        <f t="shared" si="3"/>
+        <v>807</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="4"/>
+        <v>803</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="5"/>
+        <v>853</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="6"/>
+        <v>891</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="7"/>
+        <v>881</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="8"/>
+        <v>926</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="9"/>
+        <v>991</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="10"/>
+        <v>1027</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="11"/>
+        <v>1040</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="19"/>
+        <v>1092</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="13"/>
+        <v>1119</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="14"/>
+        <v>1174</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="15"/>
+        <v>1206</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="16"/>
+        <v>1286</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="17"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="B33" s="7">
+        <f t="shared" si="3"/>
+        <v>871</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="4"/>
+        <v>882</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="5"/>
+        <v>874</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="6"/>
+        <v>928</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="7"/>
+        <v>967</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="8"/>
+        <v>976</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="9"/>
+        <v>1016</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="10"/>
+        <v>1096</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="11"/>
+        <v>1091</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="19"/>
+        <v>1136</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="13"/>
+        <v>1133</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="14"/>
+        <v>1157</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="15"/>
+        <v>1256</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="16"/>
+        <v>1281</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="17"/>
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <f t="shared" si="2"/>
+        <v>963</v>
+      </c>
+      <c r="B34" s="12">
+        <f t="shared" si="3"/>
+        <v>940</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="4"/>
+        <v>904</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="5"/>
+        <v>936</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="6"/>
+        <v>959</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="7"/>
+        <v>974</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="8"/>
+        <v>1074</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="9"/>
+        <v>1052</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="10"/>
+        <v>1067</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="11"/>
+        <v>1086</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="19"/>
+        <v>1122</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="13"/>
+        <v>1152</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="14"/>
+        <v>1236</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="15"/>
+        <v>1296</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="16"/>
+        <v>1294</v>
+      </c>
+      <c r="P34" s="13">
+        <f t="shared" si="17"/>
+        <v>1359</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
